--- a/DataLab1.xlsx
+++ b/DataLab1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\NEKN83\2022\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotbrunstorp/Desktop/FinMod/financial-risk-management/lab1-financial-risk-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F007A763-B168-594F-9A43-E6CC04212185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24735" windowHeight="12210"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24740" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -66,7 +66,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,9 +85,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,9 +125,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,7 +162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -370,19 +370,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>38353</v>
       </c>
@@ -398,7 +398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>38354</v>
       </c>
@@ -406,7 +406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>38355</v>
       </c>
@@ -414,7 +414,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>38357</v>
       </c>
@@ -422,7 +422,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>38358</v>
       </c>
@@ -430,7 +430,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>38360</v>
       </c>
@@ -438,7 +438,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38361</v>
       </c>
@@ -446,7 +446,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>38363</v>
       </c>
@@ -454,7 +454,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>38364</v>
       </c>
@@ -462,7 +462,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>38366</v>
       </c>
@@ -470,7 +470,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>38367</v>
       </c>
@@ -478,7 +478,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>38368</v>
       </c>
@@ -486,7 +486,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>38370</v>
       </c>
@@ -494,7 +494,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38371</v>
       </c>
@@ -502,7 +502,7 @@
         <v>-1050</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>38373</v>
       </c>
@@ -510,7 +510,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>38374</v>
       </c>
@@ -518,7 +518,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>38376</v>
       </c>
@@ -526,7 +526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>38377</v>
       </c>
@@ -534,7 +534,7 @@
         <v>-340</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>38379</v>
       </c>
@@ -542,7 +542,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>38380</v>
       </c>
@@ -550,7 +550,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>38381</v>
       </c>
@@ -558,7 +558,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>38383</v>
       </c>
@@ -566,7 +566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>38384</v>
       </c>
@@ -574,7 +574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>38386</v>
       </c>
@@ -582,7 +582,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38387</v>
       </c>
@@ -590,7 +590,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>38389</v>
       </c>
@@ -598,7 +598,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>38390</v>
       </c>
@@ -606,7 +606,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>38392</v>
       </c>
@@ -614,7 +614,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>38393</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>38395</v>
       </c>
@@ -630,7 +630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>38396</v>
       </c>
@@ -638,7 +638,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>38397</v>
       </c>
@@ -646,7 +646,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>38399</v>
       </c>
@@ -654,7 +654,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38400</v>
       </c>
@@ -662,7 +662,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>38402</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>38403</v>
       </c>
@@ -678,7 +678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38405</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38406</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38408</v>
       </c>
@@ -702,7 +702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38409</v>
       </c>
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>38410</v>
       </c>
@@ -718,7 +718,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>38412</v>
       </c>
@@ -726,7 +726,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>38413</v>
       </c>
@@ -734,7 +734,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>38415</v>
       </c>
@@ -742,7 +742,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>38416</v>
       </c>
@@ -750,7 +750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>38418</v>
       </c>
@@ -758,7 +758,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>38419</v>
       </c>
@@ -766,7 +766,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>38421</v>
       </c>
@@ -774,7 +774,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>38422</v>
       </c>
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38424</v>
       </c>
@@ -790,7 +790,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38425</v>
       </c>
@@ -798,7 +798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38426</v>
       </c>
@@ -806,7 +806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38428</v>
       </c>
@@ -814,7 +814,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38429</v>
       </c>
@@ -822,7 +822,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38431</v>
       </c>
@@ -830,7 +830,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38432</v>
       </c>
@@ -838,7 +838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38434</v>
       </c>
@@ -846,7 +846,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38435</v>
       </c>
@@ -854,7 +854,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38437</v>
       </c>
@@ -862,7 +862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38438</v>
       </c>
@@ -870,7 +870,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38439</v>
       </c>
@@ -878,7 +878,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38441</v>
       </c>
@@ -886,7 +886,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38442</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38444</v>
       </c>
@@ -902,7 +902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38445</v>
       </c>
@@ -910,7 +910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38447</v>
       </c>
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38448</v>
       </c>
@@ -926,7 +926,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38450</v>
       </c>
@@ -934,7 +934,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38451</v>
       </c>
@@ -942,7 +942,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38453</v>
       </c>
@@ -950,7 +950,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38454</v>
       </c>
@@ -958,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38455</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-640</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38457</v>
       </c>
@@ -974,7 +974,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38458</v>
       </c>
@@ -982,7 +982,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38460</v>
       </c>
@@ -990,7 +990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38461</v>
       </c>
@@ -998,7 +998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38463</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38464</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38466</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38467</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38468</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38470</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38471</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>38473</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>38474</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>38476</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>38477</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>38479</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>38480</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>38482</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>38483</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>38484</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>38486</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>38487</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>38489</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>38490</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>38492</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>-260</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>38493</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>38495</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>38496</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38497</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>38499</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>38500</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>38502</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>38503</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>38505</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>38506</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>38508</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>38509</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>38511</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>38512</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>38513</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>38515</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>38516</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>38518</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>38519</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>38521</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>38522</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>38524</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>38525</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>38526</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>38528</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>38529</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>38531</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>38532</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>38534</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>38535</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>38537</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>38538</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>38540</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>38541</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>38542</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>38544</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>38545</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>38547</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>38548</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>38550</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>38551</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>38553</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>38554</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>38555</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>38557</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>38558</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>38560</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>38561</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>38563</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>38564</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>38566</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>38567</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>38569</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>38570</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>38571</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>38573</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>38574</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>38576</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>38577</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>38579</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>38580</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>38582</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>38583</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>38584</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>38586</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>38587</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>38589</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>38590</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>38592</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>38593</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>38595</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>38596</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>38598</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>38599</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>38600</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>38602</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>38603</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>38605</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>38606</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>38608</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>38609</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>-240</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>38611</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>38612</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>38613</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>38615</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>38616</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>38618</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>38619</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>38621</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>38622</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>38624</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>38625</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38627</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38628</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38629</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38631</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38632</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38634</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38635</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38637</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38638</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38640</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>-410</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38641</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38642</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38644</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38645</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38647</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38648</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38650</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38651</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38653</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38654</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38656</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38658</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38660</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38661</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38663</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38664</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38666</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38667</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38669</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38670</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38671</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38673</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>38674</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>38676</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>38677</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>38679</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>-640</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>38680</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>38682</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>38683</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>38685</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>38686</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>38687</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>38689</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>38690</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>38692</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>38693</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>38695</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>38696</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>38698</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>38699</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>-710</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>38700</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>38702</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>38703</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>38705</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>38706</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>38708</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>38709</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>38711</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>38712</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>38714</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>38715</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>38716</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>-240</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>38718</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>38719</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>38721</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>38722</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>38724</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>-620</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>38725</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>38727</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>38728</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>38729</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>38731</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>38732</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>38734</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>38735</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>38737</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>38738</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>38740</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>38741</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>38743</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>38744</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>38745</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>38747</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>38748</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>38750</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>38751</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>38753</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>38754</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>38756</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>38757</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>38758</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>38760</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>38761</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>38763</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>38764</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>38766</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>38767</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>38769</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>38770</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>38772</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>38773</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>38774</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>38776</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>38777</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>38779</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>38780</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>38782</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>38783</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>38785</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>38786</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>38787</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>38789</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>38790</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>38792</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>38793</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>-830</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>38795</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>38796</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>38798</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>38799</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>38801</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>38802</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>-360</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>38803</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>38805</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>38806</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>-390</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>38808</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>38809</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>38811</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>38812</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>38814</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>38815</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>-340</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>38816</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>-260</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>38818</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>38819</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>38821</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>38822</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>38824</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>38825</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>38827</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>38828</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>38830</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>38831</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>38832</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>38834</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>38835</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>38837</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>38838</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>38840</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>38841</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>38843</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>38844</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>38845</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>38847</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>38848</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>38850</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>38851</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>38853</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>38854</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>38856</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>38857</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>-1180</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>38858</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>38860</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>38861</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>38863</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>38864</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>38866</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>38867</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>38869</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>38870</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>38872</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>38873</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>38874</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>38876</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>38877</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>38879</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>-770</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>38880</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>38882</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>38883</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>38885</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>38886</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>38887</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>38889</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>38890</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>38892</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>38893</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>38895</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>-430</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>38896</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>38898</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>38899</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>38901</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>38902</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>38903</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>38905</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>38906</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>38908</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>38909</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>38911</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>38912</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>38914</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>38915</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>38916</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>38918</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>-430</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>38919</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>38921</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>38922</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>38924</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>38925</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>38927</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>38928</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>38930</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>38931</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>38932</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>38934</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>38935</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>38937</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>38938</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>38940</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>38941</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>38943</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>38944</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>38945</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>38947</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>38948</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>38950</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>38951</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>38953</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>38954</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>38956</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>38957</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>38959</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>38960</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>38961</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>38963</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>38964</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>38966</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>38967</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>38969</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>38970</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>38972</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>38973</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>-820</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>38974</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>38976</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>38977</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>38979</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>38980</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>-340</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>38982</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>38983</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>-1440</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>38985</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>38986</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>38988</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>-2320</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>38989</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>-1560</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>38990</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>38992</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>38993</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>38995</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>38996</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>38998</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>38999</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>39001</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>39002</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>39003</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>39005</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>39006</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>39008</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>39009</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>39011</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>39012</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>39014</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>39015</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>39017</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>39018</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>39019</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>39021</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>39022</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>39024</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>39025</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>39027</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>39028</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>39030</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>39031</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>-1410</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>39032</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>39034</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>39035</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>39037</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>39038</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>39040</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>39041</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>-290</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>39043</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>39044</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>39046</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>39047</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>39048</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>39050</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>39051</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>39053</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>39054</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>39056</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>39057</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>39059</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>39060</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>39061</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>39063</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>39064</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>39066</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>39067</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>-440</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>39069</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>39070</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>39072</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>39073</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>39075</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>39076</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>39077</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>39079</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>39080</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>39082</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>39083</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>39085</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>39086</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>39088</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>39089</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>39090</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>39092</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>39093</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>39095</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>39096</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>39098</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>39099</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>39101</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>39102</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>39104</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>39105</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>39106</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>39108</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>39109</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>39111</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>39112</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>-520</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>39114</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>39115</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>39117</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>39118</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>39119</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>39121</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>39122</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>39124</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>39125</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>39127</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>39128</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>39130</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>39131</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>39133</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>39134</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>39135</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>39137</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>39138</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>39140</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>39141</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>39143</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>39144</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>39146</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>39147</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>39148</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>39150</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>39151</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>39153</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>39154</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>39156</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>39157</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>39159</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>39160</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>39162</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>-720</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>39163</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>39164</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>39166</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>39167</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>39169</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>39170</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>39172</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>-1330</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>39173</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>39175</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>-720</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>39176</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>39177</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>39179</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>39180</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>39182</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>39183</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>39185</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>39186</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>39188</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>39189</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>39191</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>39192</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>-260</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>39193</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>39195</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>39196</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>39198</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>39199</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>39201</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>39202</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>39204</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>39205</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>39206</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>39208</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>39209</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>39211</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>39212</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>39214</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>39215</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>39217</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>39218</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>39220</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>39221</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>39222</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>39224</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>39225</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>39227</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>39228</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>39230</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>39231</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>39233</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>39234</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>39235</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>39237</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>39238</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>39240</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>39241</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>39243</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>39244</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>39246</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>39247</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>39249</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>39250</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>39251</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>-570</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>39253</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>39254</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>-390</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>39256</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>39257</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>39259</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>39260</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>39262</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>39263</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>39264</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>39266</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>39267</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>39269</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-490</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>39270</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>-1180</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>39272</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>-1380</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>39273</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-4750</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>39275</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>-1140</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>39276</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>-520</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>39278</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>-1030</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>39279</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>-410</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>39280</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>39282</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>-1230</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>39283</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>-1420</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>39285</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>-1130</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>39286</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>39288</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>39289</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>-2560</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>39291</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>39292</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>39293</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>-760</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>39295</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>-1550</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>39296</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>39298</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>39299</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>39301</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>-1610</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>39302</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>39304</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>-1490</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>39305</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>39307</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>39308</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>-1960</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>39309</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>39311</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>39312</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>-850</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>39314</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>-1520</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>39315</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>39317</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>-1260</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>39318</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>-2020</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>39320</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>-830</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>39321</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>-340</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>39322</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>-2110</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>39324</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>39325</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>39327</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>39328</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>-440</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>39330</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>-1640</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>39331</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>-1050</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>39333</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>39334</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>39335</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>-410</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>39337</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>39338</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>39340</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>39341</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>39343</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>-1510</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>39344</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>-1040</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>39346</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>-850</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>39347</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>39349</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>39350</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>-1360</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>39351</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>39353</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>39354</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>39356</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>39357</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>39359</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>-1470</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>39360</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>39362</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>39363</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>-730</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>39364</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>39366</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>39367</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>39369</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>-1150</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>39370</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>-410</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>39372</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>39373</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>39375</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>39376</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>39378</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>39379</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>39380</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>39382</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>39383</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>39385</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>39386</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>-1520</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>39388</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>39389</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>-370</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>39391</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>-1860</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>39392</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>-1420</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>39393</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>-2880</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>39395</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>39396</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>39398</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>39399</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>-1130</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>39401</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>39402</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>39404</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>39405</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>39407</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>39408</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>39409</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>-1840</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>39411</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>39412</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>39414</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>39415</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>39417</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>39418</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>-940</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>39420</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>-1860</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>39421</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>39422</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>39424</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>-3950</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>39425</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-2380</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>39427</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>-3720</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>39428</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>39430</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>39431</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>-440</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>39433</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>39434</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>-3250</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>39436</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>-2160</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>39437</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>39438</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>-770</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>39440</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>39441</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>39443</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>-790</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>39444</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>3710</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>39446</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>39447</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>39449</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>39450</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>-1010</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>39451</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>39453</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>39454</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>-2950</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>39456</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>-3025</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>39457</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>39459</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>39460</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>-425</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>39462</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>-1395</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>39463</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>39465</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>39466</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>39467</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>39469</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>-490</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>39470</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>39472</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>39473</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>-1870</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>39475</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>-195</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>39476</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>-1920</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>39478</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>39479</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>39480</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>39482</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>39483</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>39485</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>39486</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>39488</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>-1870</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>39489</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>39491</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>39492</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>39494</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>39495</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>39496</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>39498</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>-685</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>39499</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>39501</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>39502</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>39504</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>39505</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>-860</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>39507</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>39508</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>39509</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>39511</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>39512</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>39514</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>39515</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>39517</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>39518</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>39520</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>39521</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>39523</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>-930</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>39524</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>39525</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>-920</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>39527</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>39528</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>-3010</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>39530</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>-490</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>39531</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>39533</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>39534</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>39536</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>-2200</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>39537</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>39538</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>39540</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>-3650</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>39541</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>39543</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>39544</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>39546</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>-2650</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>39547</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>-1650</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>39549</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>39550</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>39552</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>39553</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>39554</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>39556</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>39557</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>39559</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>39560</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>39562</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>39563</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>-920</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>39565</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>39566</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>-1570</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>39567</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>39569</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>39570</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>39572</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>39573</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>39575</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>-430</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>39576</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>39578</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>39579</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>39581</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>39582</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>39583</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>-690</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>39585</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>39586</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>39588</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>39589</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>-1130</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>39591</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>-760</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>39592</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>39594</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>39595</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>39596</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>39598</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>39599</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>39601</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>39602</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>39604</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>39605</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>39607</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>39608</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>39610</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>39611</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>39612</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>39614</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>39615</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>39617</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>39618</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>39620</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>39621</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>39623</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>39624</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>39625</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>39627</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>39628</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>-960</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>39630</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>39631</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>39633</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>39634</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>39636</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>39637</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>39639</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>-3120</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>39640</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>39641</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>39643</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>39644</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>39646</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>39647</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>39649</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>39650</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>39652</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>39653</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>39654</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>39656</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>39657</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>39659</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>39660</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>39662</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>39663</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>39665</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>39666</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>39668</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>-1280</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>39669</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>39670</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>39672</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>-1880</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>39673</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>-560</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>39675</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>39676</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>39678</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>39679</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>39681</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>39682</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>39683</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>39685</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>39686</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>39688</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>39689</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>39691</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>39692</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>39694</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>39695</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>39697</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>39698</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>39699</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>39701</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>-1680</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>39702</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>39704</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>39705</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>39707</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>39708</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>39710</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>39711</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>39712</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>39714</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>39715</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>39717</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>-3130</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>39718</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>-3130</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>39720</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>-1190</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>39721</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>39723</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>39724</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>39726</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>39727</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>39728</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>39730</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>39731</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>-5700</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>39733</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>-12410</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>39734</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>39736</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>39737</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>39739</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>39740</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>39741</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>-1320</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>39743</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>-2650</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>39744</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>-2380</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>39746</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>39747</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>39749</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>39750</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>39752</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>39753</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>39755</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>39756</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>39757</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>39759</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>39760</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>39762</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>39763</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>39765</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>-1880</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>39766</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>-6320</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>39768</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>-580</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>39769</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>39770</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>39772</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>39773</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>39775</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>39776</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>39778</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>39779</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>39781</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>-1320</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>39782</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>39784</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>39785</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>39786</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>39788</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>39789</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>39791</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>39792</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>39794</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>39795</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>39797</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>39798</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>39799</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>39801</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>39802</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>39804</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>39805</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>39807</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>39808</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>39810</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>39811</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>-1690</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>39813</v>
       </c>
@@ -8457,16 +8457,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>